--- a/forwardprimer-v3_06.xlsx
+++ b/forwardprimer-v3_06.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="60" windowWidth="19176" windowHeight="15528"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="45096" windowHeight="22872"/>
   </bookViews>
   <sheets>
     <sheet name="forwardprimer-v3_06" sheetId="1" r:id="rId1"/>
@@ -28,865 +28,865 @@
     <t>A1</t>
   </si>
   <si>
-    <t>F0481-TTGGACCAAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTGGACCAACTCGTCGGCAGCGTC</t>
+    <t>F0481-TGAGATCGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGAGATCGAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A2</t>
   </si>
   <si>
-    <t>F0482-GAGTGAAGCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAGTGAAGCTTCGTCGGCAGCGTC</t>
+    <t>F0482-AGTGATCACC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTGATCACCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A3</t>
   </si>
   <si>
-    <t>F0483-GCATGACAAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGCATGACAACTCGTCGGCAGCGTC</t>
+    <t>F0483-AGGAACAGAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGGAACAGATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A4</t>
   </si>
   <si>
-    <t>F0484-CAGAGACATG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAGAGACATGTCGTCGGCAGCGTC</t>
+    <t>F0484-AGTGATGGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTGATGGAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A5</t>
   </si>
   <si>
-    <t>F0485-AGAGCTCGTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGAGCTCGTTTCGTCGGCAGCGTC</t>
+    <t>F0485-AGATGCTGCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGATGCTGCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A6</t>
   </si>
   <si>
-    <t>F0486-ATCCTCGATG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATCCTCGATGTCGTCGGCAGCGTC</t>
+    <t>F0486-ACGTCTGGTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACGTCTGGTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A7</t>
   </si>
   <si>
-    <t>F0487-TACCTACGTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACCTACGTATCGTCGGCAGCGTC</t>
+    <t>F0487-ACTGGACAAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTGGACAAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A8</t>
   </si>
   <si>
-    <t>F0488-TCTCCTCACA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTCCTCACATCGTCGGCAGCGTC</t>
+    <t>F0488-GAGAGTCAGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAGAGTCAGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A9</t>
   </si>
   <si>
-    <t>F0489-CCACTGTGAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCCACTGTGATTCGTCGGCAGCGTC</t>
+    <t>F0489-AACACAAGCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACACAAGCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A10</t>
   </si>
   <si>
-    <t>F0490-CAACATCTCC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAACATCTCCTCGTCGGCAGCGTC</t>
+    <t>F0490-CTCAGTCCTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTCAGTCCTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A11</t>
   </si>
   <si>
-    <t>F0491-GACATGACTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGACATGACTGTCGTCGGCAGCGTC</t>
+    <t>F0491-AAGATGCAGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGATGCAGGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A12</t>
   </si>
   <si>
-    <t>F0492-GAGACAACCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAGACAACCTTCGTCGGCAGCGTC</t>
+    <t>F0492-AACCACACGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACCACACGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B1</t>
   </si>
   <si>
-    <t>F0493-TCGATGCATC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCGATGCATCTCGTCGGCAGCGTC</t>
+    <t>F0493-TACACCACCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACACCACCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B2</t>
   </si>
   <si>
-    <t>F0494-TGAGATCCTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGAGATCCTTTCGTCGGCAGCGTC</t>
+    <t>F0494-AGCTTGTTCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGCTTGTTCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B3</t>
   </si>
   <si>
-    <t>F0495-GTAGAGACGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTAGAGACGATCGTCGGCAGCGTC</t>
+    <t>F0495-CCTGAACAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCCTGAACAGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B4</t>
   </si>
   <si>
-    <t>F0496-ACTACGAGAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTACGAGAGTCGTCGGCAGCGTC</t>
+    <t>F0496-GCTACTAGTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGCTACTAGTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B5</t>
   </si>
   <si>
-    <t>F0497-TAGTGACAAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGTGACAACTCGTCGGCAGCGTC</t>
+    <t>F0497-CGTCGATCAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCGTCGATCATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B6</t>
   </si>
   <si>
-    <t>F0498-AGCTGATCAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGCTGATCATTCGTCGGCAGCGTC</t>
+    <t>F0498-GATGTCAGAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGATGTCAGACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B7</t>
   </si>
   <si>
-    <t>F0499-ACAGATGTCC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACAGATGTCCTCGTCGGCAGCGTC</t>
+    <t>F0499-GTGTACATCC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTGTACATCCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B8</t>
   </si>
   <si>
-    <t>F0500-GTCACTACTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTCACTACTTTCGTCGGCAGCGTC</t>
+    <t>F0500-ACATGGTTGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACATGGTTGGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B9</t>
   </si>
   <si>
-    <t>F0501-AGTTCTCTCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGTTCTCTCTTCGTCGGCAGCGTC</t>
+    <t>F0501-GGTCAACGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGGTCAACGAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B10</t>
   </si>
   <si>
-    <t>F0502-TACTCTCGAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACTCTCGAGTCGTCGGCAGCGTC</t>
+    <t>F0502-AGAGTCTGAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGAGTCTGATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B11</t>
   </si>
   <si>
-    <t>F0503-GACTACAAGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGACTACAAGTTCGTCGGCAGCGTC</t>
+    <t>F0503-TGGTCACTTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGGTCACTTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B12</t>
   </si>
   <si>
-    <t>F0504-TGGAAGGTTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGGAAGGTTGTCGTCGGCAGCGTC</t>
+    <t>F0504-TCAACTGTCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCAACTGTCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C1</t>
   </si>
   <si>
-    <t>F0505-GTAGCTCAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTAGCTCAGATCGTCGGCAGCGTC</t>
+    <t>F0505-AGCACAGGAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGCACAGGATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C2</t>
   </si>
   <si>
-    <t>F0506-GTCGAAGAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTCGAAGAGATCGTCGGCAGCGTC</t>
+    <t>F0506-CATCCTACAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCATCCTACAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C3</t>
   </si>
   <si>
-    <t>F0507-GATCGACCTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGATCGACCTTTCGTCGGCAGCGTC</t>
+    <t>F0507-TGTACGTCGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGTACGTCGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C4</t>
   </si>
   <si>
-    <t>F0508-GTGTTGGACA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTGTTGGACATCGTCGGCAGCGTC</t>
+    <t>F0508-AACAAGGAAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACAAGGAAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C5</t>
   </si>
   <si>
-    <t>F0509-AACTGTGATC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACTGTGATCTCGTCGGCAGCGTC</t>
+    <t>F0509-GTAGAACCAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTAGAACCAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C6</t>
   </si>
   <si>
-    <t>F0510-CAACGAAGAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAACGAAGACTCGTCGGCAGCGTC</t>
+    <t>F0510-CTTGGTAGAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTTGGTAGAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C7</t>
   </si>
   <si>
-    <t>F0511-GAACATCAGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAACATCAGCTCGTCGGCAGCGTC</t>
+    <t>F0511-GATCTCCACA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGATCTCCACATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C8</t>
   </si>
   <si>
-    <t>F0512-CGTGCTACTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCGTGCTACTTTCGTCGGCAGCGTC</t>
+    <t>F0512-GACAAGTCGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGACAAGTCGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C9</t>
   </si>
   <si>
-    <t>F0513-AGATGTGTCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGATGTGTCTTCGTCGGCAGCGTC</t>
+    <t>F0513-AGAAGACCTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGAAGACCTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C10</t>
   </si>
   <si>
-    <t>F0514-CGAACTGTCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCGAACTGTCTTCGTCGGCAGCGTC</t>
+    <t>F0514-CTCTCAGATC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTCTCAGATCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C11</t>
   </si>
   <si>
-    <t>F0515-GAAGTTGAGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAAGTTGAGGTCGTCGGCAGCGTC</t>
+    <t>F0515-TTGCACACTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTGCACACTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C12</t>
   </si>
   <si>
-    <t>F0516-ACTCTCCTTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTCTCCTTCTCGTCGGCAGCGTC</t>
+    <t>F0516-CATGGAGCTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCATGGAGCTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D1</t>
   </si>
   <si>
-    <t>F0517-CTAGGTACCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTAGGTACCATCGTCGGCAGCGTC</t>
+    <t>F0517-GATGTTCCAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGATGTTCCATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D2</t>
   </si>
   <si>
-    <t>F0518-GAACTCAGTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAACTCAGTGTCGTCGGCAGCGTC</t>
+    <t>F0518-CTTGTAGACG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTTGTAGACGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D3</t>
   </si>
   <si>
-    <t>F0519-TGTCCTAGAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGTCCTAGAGTCGTCGGCAGCGTC</t>
+    <t>F0519-ATGTCTAGAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATGTCTAGACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D4</t>
   </si>
   <si>
-    <t>F0520-ATGGTTCTTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATGGTTCTTGTCGTCGGCAGCGTC</t>
+    <t>F0520-GAGAGTTGCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAGAGTTGCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D5</t>
   </si>
   <si>
-    <t>F0521-CCAAGCTTGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCCAAGCTTGTTCGTCGGCAGCGTC</t>
+    <t>F0521-TTGAACTAGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTGAACTAGCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D6</t>
   </si>
   <si>
-    <t>F0522-ATGCAACTCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATGCAACTCTTCGTCGGCAGCGTC</t>
+    <t>F0522-GCATGCAAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGCATGCAAGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D7</t>
   </si>
   <si>
-    <t>F0523-ACTAGAGACC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTAGAGACCTCGTCGGCAGCGTC</t>
+    <t>F0523-CTACAGTACC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTACAGTACCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D8</t>
   </si>
   <si>
-    <t>F0524-GAAGTCAAGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAAGTCAAGTTCGTCGGCAGCGTC</t>
+    <t>F0524-TCTAGTGCAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCTAGTGCAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D9</t>
   </si>
   <si>
-    <t>F0525-TAGCTCTAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGCTCTAGATCGTCGGCAGCGTC</t>
+    <t>F0525-CAACTGAAGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAACTGAAGGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D10</t>
   </si>
   <si>
-    <t>F0526-GATGAACTAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGATGAACTACTCGTCGGCAGCGTC</t>
+    <t>F0526-CCTTCGTGAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCCTTCGTGATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D11</t>
   </si>
   <si>
-    <t>F0527-AAGAGCTACC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGAGCTACCTCGTCGGCAGCGTC</t>
+    <t>F0527-TCTAGGTCTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCTAGGTCTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D12</t>
   </si>
   <si>
-    <t>F0528-ATCCACAACT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATCCACAACTTCGTCGGCAGCGTC</t>
+    <t>F0528-GTCCACTAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTCCACTAGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E1</t>
   </si>
   <si>
-    <t>F0529-CATGTGACAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCATGTGACAGTCGTCGGCAGCGTC</t>
+    <t>F0529-AAGAAGAGTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGAAGAGTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E2</t>
   </si>
   <si>
-    <t>F0530-ATCCTTGTTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATCCTTGTTCTCGTCGGCAGCGTC</t>
+    <t>F0530-GATGCTCATC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGATGCTCATCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E3</t>
   </si>
   <si>
-    <t>F0531-GTCGACTACT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTCGACTACTTCGTCGGCAGCGTC</t>
+    <t>F0531-TAGAACTGAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGAACTGACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E4</t>
   </si>
   <si>
-    <t>F0532-TGCACGTGAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGCACGTGAATCGTCGGCAGCGTC</t>
+    <t>F0532-TCCATGTTCG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCCATGTTCGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E5</t>
   </si>
   <si>
-    <t>F0533-CGTAGTCGAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCGTAGTCGAATCGTCGGCAGCGTC</t>
+    <t>F0533-GGTCTTGCTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGGTCTTGCTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E6</t>
   </si>
   <si>
-    <t>F0534-GATCACTACG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGATCACTACGTCGTCGGCAGCGTC</t>
+    <t>F0534-ATCGTTCTGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATCGTTCTGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E7</t>
   </si>
   <si>
-    <t>F0535-TCTCGTGTAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTCGTGTACTCGTCGGCAGCGTC</t>
+    <t>F0535-GCATCATCTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGCATCATCTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E8</t>
   </si>
   <si>
-    <t>F0536-GTAGTGATGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTAGTGATGTTCGTCGGCAGCGTC</t>
+    <t>F0536-CCAACTTGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCCAACTTGAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E9</t>
   </si>
   <si>
-    <t>F0537-GCACAGTAGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGCACAGTAGTTCGTCGGCAGCGTC</t>
+    <t>F0537-TGTAGACAGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGTAGACAGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E10</t>
   </si>
   <si>
-    <t>F0538-TGTGGATGTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGTGGATGTCTCGTCGGCAGCGTC</t>
+    <t>F0538-CAAGAAGGTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAAGAAGGTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E11</t>
   </si>
   <si>
-    <t>F0539-GGAACCAAGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGGAACCAAGTTCGTCGGCAGCGTC</t>
+    <t>F0539-TTGTTCGAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTGTTCGAGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E12</t>
   </si>
   <si>
-    <t>F0540-GACTTCCTAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGACTTCCTACTCGTCGGCAGCGTC</t>
+    <t>F0540-CTCTACATCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTCTACATCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F1</t>
   </si>
   <si>
-    <t>F0541-CAGGATCAAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAGGATCAACTCGTCGGCAGCGTC</t>
+    <t>F0541-TTCCACGTCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTCCACGTCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F2</t>
   </si>
   <si>
-    <t>F0542-CATCCATGGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCATCCATGGATCGTCGGCAGCGTC</t>
+    <t>F0542-TACCTTCACA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACCTTCACATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F3</t>
   </si>
   <si>
-    <t>F0543-TCCTGGTACT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCCTGGTACTTCGTCGGCAGCGTC</t>
+    <t>F0543-CTACCAAGAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTACCAAGAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F4</t>
   </si>
   <si>
-    <t>F0544-GACTCATCTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGACTCATCTCTCGTCGGCAGCGTC</t>
+    <t>F0544-CATGGATCAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCATGGATCACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F5</t>
   </si>
   <si>
-    <t>F0545-TTGGAGATGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTGGAGATGATCGTCGGCAGCGTC</t>
+    <t>F0545-GAACTGACAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAACTGACAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F6</t>
   </si>
   <si>
-    <t>F0546-CGTGTAGTCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCGTGTAGTCATCGTCGGCAGCGTC</t>
+    <t>F0546-TTGAGACCTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTGAGACCTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F7</t>
   </si>
   <si>
-    <t>F0547-TGGAACTGGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGGAACTGGATCGTCGGCAGCGTC</t>
+    <t>F0547-TGCACCTTCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGCACCTTCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F8</t>
   </si>
   <si>
-    <t>F0548-TCCTTGACAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCCTTGACAATCGTCGGCAGCGTC</t>
+    <t>F0548-AACGTGACAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACGTGACATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F9</t>
   </si>
   <si>
-    <t>F0549-GTCTTGGAGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTCTTGGAGTTCGTCGGCAGCGTC</t>
+    <t>F0549-CCTGACAGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCCTGACAGAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F10</t>
   </si>
   <si>
-    <t>F0550-CAAGACGTAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAAGACGTACTCGTCGGCAGCGTC</t>
+    <t>F0550-CAAGCTAGCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAAGCTAGCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F11</t>
   </si>
   <si>
-    <t>F0551-TGCTCTGGTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGCTCTGGTATCGTCGGCAGCGTC</t>
+    <t>F0551-CTAGTGAGAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTAGTGAGAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F12</t>
   </si>
   <si>
-    <t>F0552-GATCAACTCG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGATCAACTCGTCGTCGGCAGCGTC</t>
+    <t>F0552-TCTCTACCTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCTCTACCTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G1</t>
   </si>
   <si>
-    <t>F0553-AAGTTGGAAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGTTGGAAGTCGTCGGCAGCGTC</t>
+    <t>F0553-ACTGTGTTCG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTGTGTTCGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G2</t>
   </si>
   <si>
-    <t>F0554-TAGCACTACC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGCACTACCTCGTCGGCAGCGTC</t>
+    <t>F0554-AAGCTACTCG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGCTACTCGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G3</t>
   </si>
   <si>
-    <t>F0555-AGAACGTTGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGAACGTTGCTCGTCGGCAGCGTC</t>
+    <t>F0555-AACTCGATGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACTCGATGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G4</t>
   </si>
   <si>
-    <t>F0556-CAGATCAAGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAGATCAAGTTCGTCGGCAGCGTC</t>
+    <t>F0556-TAGCAGACCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGCAGACCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G5</t>
   </si>
   <si>
-    <t>F0557-ACTCTCTACA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTCTCTACATCGTCGGCAGCGTC</t>
+    <t>F0557-TGAGGACGTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGAGGACGTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G6</t>
   </si>
   <si>
-    <t>F0558-CTGAAGGACA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTGAAGGACATCGTCGGCAGCGTC</t>
+    <t>F0558-AGTCGAACTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTCGAACTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G7</t>
   </si>
   <si>
-    <t>F0559-ACTAGTCCTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTAGTCCTCTCGTCGGCAGCGTC</t>
+    <t>F0559-GTAGCTACGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTAGCTACGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G8</t>
   </si>
   <si>
-    <t>F0560-CCTTCTAGGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCCTTCTAGGATCGTCGGCAGCGTC</t>
+    <t>F0560-AGGATCTGAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGGATCTGAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G9</t>
   </si>
   <si>
-    <t>F0561-GACTAGTAGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGACTAGTAGGTCGTCGGCAGCGTC</t>
+    <t>F0561-CTACAAGTAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTACAAGTAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G10</t>
   </si>
   <si>
-    <t>F0562-CGAAGACTGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCGAAGACTGATCGTCGGCAGCGTC</t>
+    <t>F0562-AGATGTGGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGATGTGGAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G11</t>
   </si>
   <si>
-    <t>F0563-ATGCTCTTGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATGCTCTTGATCGTCGGCAGCGTC</t>
+    <t>F0563-TACTACAGCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACTACAGCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G12</t>
   </si>
   <si>
-    <t>F0564-AGCTGTACAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGCTGTACACTCGTCGGCAGCGTC</t>
+    <t>F0564-GCTCATCAAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGCTCATCAACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H1</t>
   </si>
   <si>
-    <t>F0565-GATGATGGAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGATGATGGATTCGTCGGCAGCGTC</t>
+    <t>F0565-TTCAGACGTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTCAGACGTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H2</t>
   </si>
   <si>
-    <t>F0566-TACGAGTCTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACGAGTCTCTCGTCGGCAGCGTC</t>
+    <t>F0566-ACAAGGTGCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACAAGGTGCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H3</t>
   </si>
   <si>
-    <t>F0567-GCATCAAGGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGCATCAAGGATCGTCGGCAGCGTC</t>
+    <t>F0567-TGGAGAGATC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGGAGAGATCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H4</t>
   </si>
   <si>
-    <t>F0568-AGACGATGTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGACGATGTTTCGTCGGCAGCGTC</t>
+    <t>F0568-GGACTCTCTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGGACTCTCTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H5</t>
   </si>
   <si>
-    <t>F0569-AGTCGTTCTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGTCGTTCTCTCGTCGGCAGCGTC</t>
+    <t>F0569-GAGCAGTTGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAGCAGTTGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H6</t>
   </si>
   <si>
-    <t>F0570-TCATCTGGTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCATCTGGTGTCGTCGGCAGCGTC</t>
+    <t>F0570-ACGTCGAAGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACGTCGAAGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H7</t>
   </si>
   <si>
-    <t>F0571-ATGACCTGAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATGACCTGACTCGTCGGCAGCGTC</t>
+    <t>F0571-TGAACAACAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGAACAACACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H8</t>
   </si>
   <si>
-    <t>F0572-CCAGGTACTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCCAGGTACTTTCGTCGGCAGCGTC</t>
+    <t>F0572-TTGTCTCCTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTGTCTCCTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H9</t>
   </si>
   <si>
-    <t>F0573-CGTAGAGTCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCGTAGAGTCTTCGTCGGCAGCGTC</t>
+    <t>F0573-TACAACTTCG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACAACTTCGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H10</t>
   </si>
   <si>
-    <t>F0574-TAGAACCAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGAACCAGATCGTCGGCAGCGTC</t>
+    <t>F0574-TTCAGTGAGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTCAGTGAGGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H11</t>
   </si>
   <si>
-    <t>F0575-ATGACAACTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATGACAACTGTCGTCGGCAGCGTC</t>
+    <t>F0575-CTTGGATCCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTTGGATCCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H12</t>
   </si>
   <si>
-    <t>F0576-TCAACACTTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCAACACTTGTCGTCGGCAGCGTC</t>
+    <t>F0576-CATGCTACGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCATGCTACGATCGTCGGCAGCGTC</t>
   </si>
 </sst>
 </file>
